--- a/prodinfo/mea/sa/output/res20260125.xlsx
+++ b/prodinfo/mea/sa/output/res20260125.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-25 05:15:51</v>
+        <v>2026-01-25 06:16:20</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-25 05:15:58</v>
+        <v>2026-01-25 06:16:24</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-25 05:16:04</v>
+        <v>2026-01-25 06:16:27</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-25 05:16:08</v>
+        <v>2026-01-25 06:16:29</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-25 05:16:16</v>
+        <v>2026-01-25 06:16:32</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-25 05:16:23</v>
+        <v>2026-01-25 06:16:37</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-25 05:16:26</v>
+        <v>2026-01-25 06:16:40</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-25 05:16:31</v>
+        <v>2026-01-25 06:16:43</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-25 05:16:36</v>
+        <v>2026-01-25 06:16:48</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-25 05:16:39</v>
+        <v>2026-01-25 06:16:53</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-25 05:16:45</v>
+        <v>2026-01-25 06:16:57</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-25 05:16:49</v>
+        <v>2026-01-25 06:17:00</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-25 05:16:55</v>
+        <v>2026-01-25 06:17:02</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-25 05:17:01</v>
+        <v>2026-01-25 06:17:08</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-25 05:17:07</v>
+        <v>2026-01-25 06:17:10</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-25 05:17:10</v>
+        <v>2026-01-25 06:17:13</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-25 05:17:15</v>
+        <v>2026-01-25 06:17:17</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-25 05:17:20</v>
+        <v>2026-01-25 06:17:22</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-25 05:17:35</v>
+        <v>2026-01-25 06:17:27</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-25 05:17:40</v>
+        <v>2026-01-25 06:17:30</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-25 05:17:45</v>
+        <v>2026-01-25 06:17:36</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-01-25 05:17:51</v>
+        <v>2026-01-25 06:17:40</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-01-25 05:17:57</v>
+        <v>2026-01-25 06:17:45</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-01-25 05:18:01</v>
+        <v>2026-01-25 06:17:50</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-01-25 05:18:09</v>
+        <v>2026-01-25 06:17:53</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-01-25 05:18:17</v>
+        <v>2026-01-25 06:17:57</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-01-25 05:18:23</v>
+        <v>2026-01-25 06:18:00</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-01-25 05:18:28</v>
+        <v>2026-01-25 06:18:04</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-01-25 05:18:35</v>
+        <v>2026-01-25 06:18:09</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-01-25 05:18:42</v>
+        <v>2026-01-25 06:18:15</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-01-25 05:18:47</v>
+        <v>2026-01-25 06:18:20</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-01-25 05:18:52</v>
+        <v>2026-01-25 06:18:25</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-01-25 05:18:57</v>
+        <v>2026-01-25 06:18:31</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-01-25 05:19:04</v>
+        <v>2026-01-25 06:18:36</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-01-25 05:19:08</v>
+        <v>2026-01-25 06:18:40</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-01-25 05:19:12</v>
+        <v>2026-01-25 06:18:42</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-01-25 05:19:17</v>
+        <v>2026-01-25 06:18:48</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-01-25 05:19:22</v>
+        <v>2026-01-25 06:18:52</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-01-25 05:19:29</v>
+        <v>2026-01-25 06:18:57</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-01-25 05:19:34</v>
+        <v>2026-01-25 06:19:01</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-01-25 05:19:42</v>
+        <v>2026-01-25 06:19:05</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-01-25 05:19:49</v>
+        <v>2026-01-25 06:19:11</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-01-25 05:19:56</v>
+        <v>2026-01-25 06:19:16</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-01-25 05:20:02</v>
+        <v>2026-01-25 06:19:20</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-01-25 05:20:07</v>
+        <v>2026-01-25 06:19:25</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-01-25 05:20:13</v>
+        <v>2026-01-25 06:19:31</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-01-25 05:20:19</v>
+        <v>2026-01-25 06:19:35</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-01-25 05:20:24</v>
+        <v>2026-01-25 06:19:40</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-01-25 05:20:28</v>
+        <v>2026-01-25 06:19:42</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2026-01-25 05:20:34</v>
+        <v>2026-01-25 06:19:47</v>
       </c>
       <c r="B51" t="str">
         <v>沙特</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2026-01-25 05:20:38</v>
+        <v>2026-01-25 06:19:51</v>
       </c>
       <c r="B52" t="str">
         <v>沙特</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2026-01-25 05:20:44</v>
+        <v>2026-01-25 06:19:54</v>
       </c>
       <c r="B53" t="str">
         <v>沙特</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-01-25 05:20:48</v>
+        <v>2026-01-25 06:19:57</v>
       </c>
       <c r="B54" t="str">
         <v>沙特</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2026-01-25 05:20:52</v>
+        <v>2026-01-25 06:20:01</v>
       </c>
       <c r="B55" t="str">
         <v>沙特</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2026-01-25 05:20:58</v>
+        <v>2026-01-25 06:20:06</v>
       </c>
       <c r="B56" t="str">
         <v>沙特</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2026-01-25 05:21:05</v>
+        <v>2026-01-25 06:20:11</v>
       </c>
       <c r="B57" t="str">
         <v>沙特</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2026-01-25 05:21:10</v>
+        <v>2026-01-25 06:20:16</v>
       </c>
       <c r="B58" t="str">
         <v>沙特</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2026-01-25 05:21:17</v>
+        <v>2026-01-25 06:20:18</v>
       </c>
       <c r="B59" t="str">
         <v>沙特</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2026-01-25 05:21:21</v>
+        <v>2026-01-25 06:20:21</v>
       </c>
       <c r="B60" t="str">
         <v>沙特</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2026-01-25 05:21:27</v>
+        <v>2026-01-25 06:20:26</v>
       </c>
       <c r="B61" t="str">
         <v>沙特</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2026-01-25 05:21:32</v>
+        <v>2026-01-25 06:20:30</v>
       </c>
       <c r="B62" t="str">
         <v>沙特</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2026-01-25 05:21:38</v>
+        <v>2026-01-25 06:20:35</v>
       </c>
       <c r="B63" t="str">
         <v>沙特</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2026-01-25 05:21:44</v>
+        <v>2026-01-25 06:20:37</v>
       </c>
       <c r="B64" t="str">
         <v>沙特</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2026-01-25 05:21:48</v>
+        <v>2026-01-25 06:20:43</v>
       </c>
       <c r="B65" t="str">
         <v>沙特</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2026-01-25 05:21:53</v>
+        <v>2026-01-25 06:20:45</v>
       </c>
       <c r="B66" t="str">
         <v>沙特</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2026-01-25 05:21:59</v>
+        <v>2026-01-25 06:20:50</v>
       </c>
       <c r="B67" t="str">
         <v>沙特</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2026-01-25 05:22:03</v>
+        <v>2026-01-25 06:20:54</v>
       </c>
       <c r="B68" t="str">
         <v>沙特</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2026-01-25 05:22:07</v>
+        <v>2026-01-25 06:20:58</v>
       </c>
       <c r="B69" t="str">
         <v>沙特</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2026-01-25 05:22:14</v>
+        <v>2026-01-25 06:21:02</v>
       </c>
       <c r="B70" t="str">
         <v>沙特</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2026-01-25 05:22:21</v>
+        <v>2026-01-25 06:21:06</v>
       </c>
       <c r="B71" t="str">
         <v>沙特</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2026-01-25 05:22:29</v>
+        <v>2026-01-25 06:21:10</v>
       </c>
       <c r="B72" t="str">
         <v>沙特</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2026-01-25 05:22:33</v>
+        <v>2026-01-25 06:21:13</v>
       </c>
       <c r="B73" t="str">
         <v>沙特</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2026-01-25 05:22:40</v>
+        <v>2026-01-25 06:21:16</v>
       </c>
       <c r="B74" t="str">
         <v>沙特</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2026-01-25 05:22:44</v>
+        <v>2026-01-25 06:21:20</v>
       </c>
       <c r="B75" t="str">
         <v>沙特</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2026-01-25 05:22:50</v>
+        <v>2026-01-25 06:21:23</v>
       </c>
       <c r="B76" t="str">
         <v>沙特</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2026-01-25 05:22:57</v>
+        <v>2026-01-25 06:21:28</v>
       </c>
       <c r="B77" t="str">
         <v>沙特</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2026-01-25 05:23:04</v>
+        <v>2026-01-25 06:21:34</v>
       </c>
       <c r="B78" t="str">
         <v>沙特</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2026-01-25 05:23:08</v>
+        <v>2026-01-25 06:21:38</v>
       </c>
       <c r="B79" t="str">
         <v>沙特</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2026-01-25 05:23:40</v>
+        <v>2026-01-25 06:21:43</v>
       </c>
       <c r="B80" t="str">
         <v>沙特</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2026-01-25 05:23:47</v>
+        <v>2026-01-25 06:21:46</v>
       </c>
       <c r="B81" t="str">
         <v>沙特</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2026-01-25 05:23:53</v>
+        <v>2026-01-25 06:21:51</v>
       </c>
       <c r="B82" t="str">
         <v>沙特</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2026-01-25 05:24:00</v>
+        <v>2026-01-25 06:21:54</v>
       </c>
       <c r="B83" t="str">
         <v>沙特</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2026-01-25 05:24:07</v>
+        <v>2026-01-25 06:21:59</v>
       </c>
       <c r="B84" t="str">
         <v>沙特</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2026-01-25 05:24:14</v>
+        <v>2026-01-25 06:22:03</v>
       </c>
       <c r="B85" t="str">
         <v>沙特</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2026-01-25 05:24:18</v>
+        <v>2026-01-25 06:22:07</v>
       </c>
       <c r="B86" t="str">
         <v>沙特</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2026-01-25 05:24:23</v>
+        <v>2026-01-25 06:22:12</v>
       </c>
       <c r="B87" t="str">
         <v>沙特</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2026-01-25 05:24:29</v>
+        <v>2026-01-25 06:22:14</v>
       </c>
       <c r="B88" t="str">
         <v>沙特</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2026-01-25 05:24:34</v>
+        <v>2026-01-25 06:22:18</v>
       </c>
       <c r="B89" t="str">
         <v>沙特</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2026-01-25 05:24:39</v>
+        <v>2026-01-25 06:22:23</v>
       </c>
       <c r="B90" t="str">
         <v>沙特</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2026-01-25 05:24:45</v>
+        <v>2026-01-25 06:22:29</v>
       </c>
       <c r="B91" t="str">
         <v>沙特</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2026-01-25 05:24:49</v>
+        <v>2026-01-25 06:22:33</v>
       </c>
       <c r="B92" t="str">
         <v>沙特</v>

--- a/prodinfo/mea/sa/output/res20260125.xlsx
+++ b/prodinfo/mea/sa/output/res20260125.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,628 +427,1134 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-25 06:30:31</v>
+        <v>2026-01-25 06:50:26</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
       </c>
       <c r="C2" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D2" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016102</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-1-tb-cosmic-orange/p/100460359</v>
       </c>
       <c r="E2" t="str">
-        <v>HUAWEI Huawei FreeClip2 White</v>
+        <v>APPLE iPhone 17 Pro 12+1024</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>699</v>
+        <v>6999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-25 06:30:42</v>
+        <v>2026-01-25 06:50:34</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
       </c>
       <c r="C3" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D3" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012801</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-256gb-deep-blue/p/100460369</v>
       </c>
       <c r="E3" t="str">
-        <v>HUAWEI Huawei FreeBuds 6 Black</v>
+        <v>APPLE iPhone 17 Pro 12+256</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>499</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-25 06:30:51</v>
+        <v>2026-01-25 06:50:43</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
       </c>
       <c r="C4" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D4" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012802</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-512gb-deep-blue/p/100460646</v>
       </c>
       <c r="E4" t="str">
-        <v>HUAWEI Huawei FreeBuds 6 Purple</v>
+        <v>APPLE iPhone 17 Pro 12+512</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>499</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-25 06:30:56</v>
+        <v>2026-01-25 06:50:47</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
       </c>
       <c r="C5" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D5" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012803</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</v>
       </c>
       <c r="E5" t="str">
-        <v>HUAWEI Huawei FreeBuds 6 White</v>
+        <v>HONOR 400 12+256</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>499</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-25 06:31:08</v>
+        <v>2026-01-25 06:50:54</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
       </c>
       <c r="C6" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D6" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012203</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</v>
       </c>
       <c r="E6" t="str">
-        <v>HUAWEI Huawei FreeArc Black</v>
+        <v>HONOR 400 Pro 12+512</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>269</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-25 06:31:18</v>
+        <v>2026-01-25 06:51:05</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
       </c>
       <c r="C7" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D7" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012202</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-magic-8-pro-5g-512-gb-sunrise-gold/p/100487672</v>
       </c>
       <c r="E7" t="str">
-        <v>HUAWEI Huawei FreeArc White</v>
+        <v>HONOR Magic 8 Pro 12+512</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>269</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-25 06:31:22</v>
+        <v>2026-01-25 06:51:16</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
       </c>
       <c r="C8" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D8" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012201</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</v>
       </c>
       <c r="E8" t="str">
-        <v>HUAWEI Huawei FreeArc Green</v>
+        <v>HONOR X9C 12+256</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>269</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-25 06:31:29</v>
+        <v>2026-01-25 06:51:27</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
       </c>
       <c r="C9" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D9" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015506</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</v>
       </c>
       <c r="E9" t="str">
-        <v>HUAWEI Huawei FreeBuds 7i Pink</v>
+        <v>HONOR X9D 12+256</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>269</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-25 06:31:32</v>
+        <v>2026-01-25 06:51:35</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
       </c>
       <c r="C10" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D10" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015505</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</v>
       </c>
       <c r="E10" t="str">
-        <v>HUAWEI Huawei FreeBuds 7i Black</v>
+        <v>HUAWEI nova 13  12+256</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>269</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-25 06:31:40</v>
+        <v>2026-01-25 06:51:42</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
       </c>
       <c r="C11" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D11" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015504</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</v>
       </c>
       <c r="E11" t="str">
-        <v>HUAWEI Huawei FreeBuds 7i White</v>
+        <v>HUAWEI nova 13 Pro 12+512</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>269</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-25 06:31:46</v>
+        <v>2026-01-25 06:51:49</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
       </c>
       <c r="C12" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D12" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010202</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</v>
       </c>
       <c r="E12" t="str">
-        <v>HUAWEI Huawei FreeBuds 6i White</v>
+        <v>HUAWEI nova 14 12+256</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>199</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-25 06:31:52</v>
+        <v>2026-01-25 06:51:56</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
       </c>
       <c r="C13" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D13" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010201</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</v>
       </c>
       <c r="E13" t="str">
-        <v>HUAWEI Huawei FreeBuds 6i Black</v>
+        <v>HUAWEI nova 14 Pro 12+512</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>199</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-25 06:32:01</v>
+        <v>2026-01-25 06:52:07</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
       </c>
       <c r="C14" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D14" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010203</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</v>
       </c>
       <c r="E14" t="str">
-        <v>HUAWEI Huawei FreeBuds 6i Purple</v>
+        <v>HUAWEI Pura 80 12+256</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>199</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-25 06:32:09</v>
+        <v>2026-01-25 06:52:16</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
       </c>
       <c r="C15" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D15" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015301</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-pro-4g-lte-512-gb-glazed-black/p/100455032</v>
       </c>
       <c r="E15" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 4 White</v>
+        <v>HUAWEI Pura 80 Pro 12+512</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>159</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-25 06:32:16</v>
+        <v>2026-01-25 06:52:26</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
       </c>
       <c r="C16" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D16" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015302</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-ultra-4g-lte-512-gb-prestige-gold/p/100455030</v>
       </c>
       <c r="E16" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 4 Black</v>
+        <v>HUAWEI Pura 80 Ultra 12+512</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>159</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-25 06:32:25</v>
+        <v>2026-01-25 06:52:30</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
       </c>
       <c r="C17" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D17" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010901</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</v>
       </c>
       <c r="E17" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 3 Beige</v>
+        <v>OPPO Reno 13 12+512</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>129</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-25 06:32:31</v>
+        <v>2026-01-25 06:52:39</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
       </c>
       <c r="C18" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D18" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010902</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</v>
       </c>
       <c r="E18" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 3 Black</v>
+        <v>OPPO Reno 14F 12+256</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>129</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-25 06:32:35</v>
+        <v>2026-01-25 06:52:48</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
       </c>
       <c r="C19" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D19" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006901</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</v>
       </c>
       <c r="E19" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 2 White</v>
+        <v>SAMSUNG A56 8+256</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>79</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-25 06:32:43</v>
+        <v>2026-01-25 06:52:54</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
       </c>
       <c r="C20" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D20" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006902</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-256gb-onyx-black/p/100355371</v>
       </c>
       <c r="E20" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 2 Blue</v>
+        <v>SAMSUNG S24 Plus 12+256</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>79</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-25 06:32:50</v>
+        <v>2026-01-25 06:53:03</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
       </c>
       <c r="C21" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D21" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006903</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-512gb-amber-yellow/p/100355358</v>
       </c>
       <c r="E21" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 2 Black</v>
+        <v>SAMSUNG S24 Plus 12+512</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>79</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-25 06:32:59</v>
+        <v>2026-01-25 06:53:11</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
       </c>
       <c r="C22" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D22" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-1tb-titanium-green/p/100363754</v>
       </c>
       <c r="E22" t="str">
-        <v>HUAWEI Huawei FreeBuds SE 2 Purple</v>
+        <v>SAMSUNG S24 Ultra 12+1024</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>79</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-01-25 06:33:09</v>
+        <v>2026-01-25 06:53:21</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
       </c>
       <c r="C23" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D23" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008001</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
       </c>
       <c r="E23" t="str">
-        <v>HUAWEI Huawei FreeClip Purple</v>
+        <v>SAMSUNG S24 Ultra 12+256</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>549</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-01-25 06:33:13</v>
+        <v>2026-01-25 06:53:28</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
       </c>
       <c r="C24" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D24" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008002</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
       </c>
       <c r="E24" t="str">
-        <v>HUAWEI Huawei FreeClip Black</v>
+        <v>SAMSUNG S24 Ultra 12+512</v>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>549</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-01-25 06:33:23</v>
+        <v>2026-01-25 06:53:33</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
       </c>
       <c r="C25" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D25" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008003</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
       </c>
       <c r="E25" t="str">
-        <v>HUAWEI Huawei FreeClip Beige</v>
+        <v>SAMSUNG S25 12+128</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>549</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-01-25 06:33:31</v>
+        <v>2026-01-25 06:53:39</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
       </c>
       <c r="C26" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D26" t="str">
-        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008004</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
       </c>
       <c r="E26" t="str">
-        <v>HUAWEI Huawei FreeClip Rose Gold</v>
+        <v>SAMSUNG S25 12+256</v>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>549</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-01-25 06:33:40</v>
+        <v>2026-01-25 06:53:46</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
       </c>
       <c r="C27" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D27" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016101</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
       </c>
       <c r="E27" t="str">
-        <v>HUAWEI Huawei FreeClip2 Blue</v>
+        <v>SAMSUNG S25 FE 8+256</v>
       </c>
       <c r="F27" t="str">
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>699</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-01-25 06:33:51</v>
+        <v>2026-01-25 06:53:53</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
       </c>
       <c r="C28" t="str">
-        <v>Vmall</v>
+        <v>Extra</v>
       </c>
       <c r="D28" t="str">
-        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016103</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
       </c>
       <c r="E28" t="str">
-        <v>HUAWEI Huawei FreeClip2 Black</v>
+        <v>SAMSUNG S25 Plus 12+256</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>699</v>
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2026-01-25 06:54:03</v>
+      </c>
+      <c r="B29" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
+      </c>
+      <c r="E29" t="str">
+        <v>SAMSUNG S25 Plus 12+512</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2026-01-25 06:54:14</v>
+      </c>
+      <c r="B30" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
+      </c>
+      <c r="E30" t="str">
+        <v>SAMSUNG S25 Ultra 12+256</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2026-01-25 06:54:20</v>
+      </c>
+      <c r="B31" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
+      </c>
+      <c r="E31" t="str">
+        <v>SAMSUNG S25 Ultra 12+512</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2026-01-25 06:54:30</v>
+      </c>
+      <c r="B32" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
+      </c>
+      <c r="E32" t="str">
+        <v>SAMSUNG Z Fold 7 12+256</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>6699</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2026-01-25 06:54:38</v>
+      </c>
+      <c r="B33" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
+      </c>
+      <c r="E33" t="str">
+        <v>SAMSUNG Z Fold 7 12+512</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2026-01-25 06:54:42</v>
+      </c>
+      <c r="B34" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
+      </c>
+      <c r="E34" t="str">
+        <v>XIAOMI 15T 12+256</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2026-01-25 06:54:52</v>
+      </c>
+      <c r="B35" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
+      </c>
+      <c r="E35" t="str">
+        <v>XIAOMI 15T Pro 12+512</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2026-01-25 06:55:02</v>
+      </c>
+      <c r="B36" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
+      </c>
+      <c r="E36" t="str">
+        <v>XIAOMI Xiaomi 15 12+512</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2026-01-25 06:55:10</v>
+      </c>
+      <c r="B37" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
+      </c>
+      <c r="E37" t="str">
+        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2026-01-25 06:55:19</v>
+      </c>
+      <c r="B38" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</v>
+      </c>
+      <c r="E38" t="str">
+        <v>APPLE iPad Pro M5 12+256，WiFi，13"</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2026-01-25 06:55:24</v>
+      </c>
+      <c r="B39" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</v>
+      </c>
+      <c r="E39" t="str">
+        <v>APPLE iPad Pro M5 12+256，WiFi，11"</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2026-01-25 06:55:28</v>
+      </c>
+      <c r="B40" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D40" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</v>
+      </c>
+      <c r="E40" t="str">
+        <v>SAMSUNG Galaxy Tab S10 Ultra 12+256，WiFi，14.6"</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2026-01-25 06:55:38</v>
+      </c>
+      <c r="B41" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D41" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</v>
+      </c>
+      <c r="E41" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE+ 12+256，WiFi，13.1"</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2026-01-25 06:55:42</v>
+      </c>
+      <c r="B42" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D42" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</v>
+      </c>
+      <c r="E42" t="str">
+        <v>SAMSUNG Galaxy Tab S10+ 12+256，WiFi，12.4"</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2026-01-25 06:55:47</v>
+      </c>
+      <c r="B43" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D43" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</v>
+      </c>
+      <c r="E43" t="str">
+        <v>HONOR Magic Pad3 12+512 带键盘带笔，WiFi，13.3"</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2026-01-25 06:55:57</v>
+      </c>
+      <c r="B44" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D44" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</v>
+      </c>
+      <c r="E44" t="str">
+        <v>HONOR Magic Pad2 12+256 带键盘带笔，WiFi，12.3"</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2026-01-25 06:56:02</v>
+      </c>
+      <c r="B45" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D45" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</v>
+      </c>
+      <c r="E45" t="str">
+        <v>APPLE iPad Air M3 8+256，WiFi，11"</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2026-01-25 06:56:09</v>
+      </c>
+      <c r="B46" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</v>
+      </c>
+      <c r="E46" t="str">
+        <v>APPLE iPad Air M3 8+128，WiFi，11"</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2026-01-25 06:56:13</v>
+      </c>
+      <c r="B47" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</v>
+      </c>
+      <c r="E47" t="str">
+        <v>APPLE  iPad A16 6+128，LTE，11“</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2026-01-25 06:56:23</v>
+      </c>
+      <c r="B48" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D48" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</v>
+      </c>
+      <c r="E48" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE+ 8+128，WiFi，13.1"</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2026-01-25 06:56:31</v>
+      </c>
+      <c r="B49" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D49" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</v>
+      </c>
+      <c r="E49" t="str">
+        <v>APPLE iPad mini 8+128，WiFi，8.3"</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2026-01-25 06:56:36</v>
+      </c>
+      <c r="B50" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D50" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</v>
+      </c>
+      <c r="E50" t="str">
+        <v>APPLE iPad mini 8+256，WiFi，8.3"</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>1649</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G50"/>
   </ignoredErrors>
 </worksheet>
 </file>